--- a/Clasificando projetos.xlsx
+++ b/Clasificando projetos.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chend\Desktop\Insper\2º Semestre 2C\Co-design de aplicativos\Projeto 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chend\Documents\GitHub\Projeto-1-Co-design-de-apps\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -101,27 +101,9 @@
     <t>Análise exploratória</t>
   </si>
   <si>
-    <t>Software</t>
-  </si>
-  <si>
     <t>Construção</t>
   </si>
   <si>
-    <t>Construção pura</t>
-  </si>
-  <si>
-    <t>Construção com software</t>
-  </si>
-  <si>
-    <t>Apresentação</t>
-  </si>
-  <si>
-    <t>Produção textual</t>
-  </si>
-  <si>
-    <t>Teoria</t>
-  </si>
-  <si>
     <t>Acionamento PWM com eletrônica analógica ou filtro</t>
   </si>
   <si>
@@ -129,6 +111,24 @@
   </si>
   <si>
     <t>Experimentação e testes em laboratório</t>
+  </si>
+  <si>
+    <t>Produções textuais</t>
+  </si>
+  <si>
+    <t>Apresentações</t>
+  </si>
+  <si>
+    <t>Projetos teóricos</t>
+  </si>
+  <si>
+    <t>Construções puras</t>
+  </si>
+  <si>
+    <t>Construções com softwares</t>
+  </si>
+  <si>
+    <t>Projetos envolvendo softwares</t>
   </si>
 </sst>
 </file>
@@ -286,34 +286,34 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -638,171 +638,171 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="19.7109375" style="4"/>
-    <col min="6" max="12" width="15" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="19.7109375" style="4"/>
+    <col min="1" max="5" width="19.7109375" style="1"/>
+    <col min="6" max="12" width="15" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="19.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="3" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Clasificando projetos.xlsx
+++ b/Clasificando projetos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Brinquedo infantil</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Análise exploratória</t>
   </si>
   <si>
-    <t>Construção</t>
-  </si>
-  <si>
     <t>Acionamento PWM com eletrônica analógica ou filtro</t>
   </si>
   <si>
@@ -122,20 +119,17 @@
     <t>Projetos teóricos</t>
   </si>
   <si>
-    <t>Construções puras</t>
-  </si>
-  <si>
-    <t>Construções com softwares</t>
-  </si>
-  <si>
     <t>Projetos envolvendo softwares</t>
+  </si>
+  <si>
+    <t>Prototipagem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +146,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -284,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -314,6 +316,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -638,53 +643,49 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="19.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="19.7109375" style="1"/>
+    <col min="1" max="5" width="19.75" style="1"/>
     <col min="6" max="12" width="15" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="19.7109375" style="1"/>
+    <col min="13" max="16384" width="19.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
@@ -705,9 +706,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
@@ -728,7 +729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
@@ -745,7 +746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
@@ -763,6 +764,7 @@
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="C7" s="11"/>
       <c r="G7" s="4" t="s">
         <v>21</v>
       </c>

--- a/Clasificando projetos.xlsx
+++ b/Clasificando projetos.xlsx
@@ -71,9 +71,6 @@
     <t>Circuito eletrônico com amplificados operacional ou diodos e transistores</t>
   </si>
   <si>
-    <t>Aplication Singularity</t>
-  </si>
-  <si>
     <t>Cálculo de conceito</t>
   </si>
   <si>
@@ -123,13 +120,16 @@
   </si>
   <si>
     <t>Prototipagem</t>
+  </si>
+  <si>
+    <t>Application Singularity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +154,13 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -286,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -300,6 +307,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -318,7 +328,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -642,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -654,43 +664,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -700,15 +710,15 @@
         <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
@@ -725,30 +735,30 @@
       <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
+      <c r="E5" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>14</v>
@@ -757,23 +767,23 @@
         <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="G7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -784,12 +794,12 @@
     </row>
     <row r="10" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="G11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
